--- a/Traffic_Disruptions_Answers_By_Year.xlsx
+++ b/Traffic_Disruptions_Answers_By_Year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qiangli/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80743008-DEC6-2643-B70B-3D2208B9D17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1104A9EF-FA81-BD4D-9312-94B1B4523D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChatGPT-4" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Llama-3-70B-T" sheetId="6" r:id="rId6"/>
     <sheet name="Llama-3-70b-Inst-FW" sheetId="7" r:id="rId7"/>
     <sheet name="Mixtral-8x7B" sheetId="8" r:id="rId8"/>
+    <sheet name="Claude-3-Sonnet" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ChatGPT-4'!$A$1:$A$1</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="91">
   <si>
     <t>Question</t>
   </si>
@@ -459,6 +460,56 @@
 12-18 Uhr: 1000 Minuten
 18-24 Uhr: 1500 Minuten
 Die meisten Ereignisse traten in der Zeitspanne 18-24 Uhr auf.</t>
+  </si>
+  <si>
+    <t>{0: {'Sachbeschädigung': 2}, 1: {}, 2: {}, 10: {'Rettungseinsatz': 1}, 11: {'Fahrtbehinderung': 1}, 13: {'Verkehrsunfall': 1, 'Fahrtbehinderung': 1}, 17: {'Verspätung': 1, 'Schadhaftes Fahrzeug': 2}, 18: {'Verspätung': 1}, 20: {'Schadhaftes Fahrzeug': 1}, 23: {'Fahrtbehinderung': 1}, 0: {'Gleisschaden': 1}}</t>
+  </si>
+  <si>
+    <t>Morgendliche Hauptverkehrszeit (7-9 Uhr):
+Keine Daten vorhanden.
+Abendliche Hauptverkehrszeit (17-19 Uhr):
+15A: 1
+39A: 1
+38A: 1</t>
+  </si>
+  <si>
+    <t>00:00-03:00 (1.6354166666666665 Stunden)</t>
+  </si>
+  <si>
+    <t>Erste Störung des Tages:
+Eintrittszeit: 2014-08-15 02:34:00, Dauer: 1:26:00, Störungsart: N6 Sachbeschädigung
+Letzte Störung des Tages:
+Eintrittszeit: 2014-08-15 00:57:00, Dauer: 23:06:00, Störungsart: 40 Gleisschaden</t>
+  </si>
+  <si>
+    <t>Keine Daten zu betroffenen Haltestellen vorhanden.</t>
+  </si>
+  <si>
+    <t>40 Gleisschaden, Dauer: 23 Stunde(n) 6 Minute(n)
+N6 Sachbeschädigung, Dauer: 1 Stunde(n) 26 Minute(n)
+N31 Sachbeschädigung, Dauer: 1 Stunde(n) 25 Minute(n)</t>
+  </si>
+  <si>
+    <t>3:33:26.181818182
+Ereignis mit der Dauer am nächsten am Durchschnitt: 31 Verspätung, Dauer: 1:21:00</t>
+  </si>
+  <si>
+    <t>10:45:00: 1 Rettungseinsatz, Dauer: 0:57:00
+11:47:00: 49 Fahrtbehinderung, Dauer: 1:07:00
+13:48:00: 60 Verkehrsunfall, Dauer: 0:39:00
+13:51:00: 63A Verspätung, Dauer: 7:00:00
+17:05:00: 39A Schadhaftes Fahrzeug, Dauer: 0:58:00
+17:44:00: 15A Verspätung, Dauer: 0:55:00
+18:21:00: 31 Verspätung, Dauer: 1:21:00</t>
+  </si>
+  <si>
+    <t>63A Verspätung
+40 Gleisschaden Durchschnittliche Dauer der Langereignisse: 15:03:00</t>
+  </si>
+  <si>
+    <t>Gesamtdauer der Ereignisse am Vormittag (6:00-12:00): 1:04:00
+Gesamtdauer der Ereignisse am Nachmittag (12:00-18:00): 9:40:00
+Gesamtdauer der Ereignisse am Abend (18:00-24:00): 25:11:00</t>
   </si>
 </sst>
 </file>
@@ -1640,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803BEB0D-54A4-5449-AF4C-D552AECCE538}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1741,4 +1792,111 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2EA48A6-A9AF-A049-8CC2-DAEAD8D4E857}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.5" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>